--- a/src/main/resources/template/customers_template.xlsx
+++ b/src/main/resources/template/customers_template.xlsx
@@ -14,9 +14,6 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!#REF!</definedName>
-  </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -32,19 +29,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
   <si>
-    <t>Customer Name</t>
+    <t>Name</t>
   </si>
   <si>
     <t>Description</t>
   </si>
   <si>
-    <t>Contact Person Name</t>
-  </si>
-  <si>
-    <t>Address Line 1</t>
-  </si>
-  <si>
-    <t>Address Line 2</t>
+    <t>Contact Person</t>
+  </si>
+  <si>
+    <t>Address Line1</t>
+  </si>
+  <si>
+    <t>Address Line2</t>
   </si>
   <si>
     <t>Street</t>
@@ -59,22 +56,22 @@
     <t>Country</t>
   </si>
   <si>
-    <t>PIN Code</t>
+    <t>Postal Code</t>
   </si>
   <si>
     <t>Phone Number</t>
   </si>
   <si>
-    <t>Mobile Number(Primary)</t>
-  </si>
-  <si>
-    <t>Mobile Number(Secondary)</t>
-  </si>
-  <si>
-    <t>Customer Details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Main Address </t>
+    <t>Mobile Number (Primary)</t>
+  </si>
+  <si>
+    <t>Mobile Number (Secondary)</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>Main Address</t>
   </si>
   <si>
     <t>Billing Address</t>
@@ -84,7 +81,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -100,22 +97,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -126,13 +107,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -164,17 +145,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,166 +428,153 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Y7"/>
+  <dimension ref="B1:Z3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="22" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="22" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="24.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" ht="24" x14ac:dyDescent="0.3">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4" t="s">
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="R2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="S2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="T2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="U2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="V2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="W2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="X2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="Y2" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="Z2" s="2"/>
     </row>
-    <row r="3" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="I4" s="2"/>
-      <c r="T4" s="2"/>
-    </row>
-    <row r="5" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="I5" s="2"/>
-      <c r="T5" s="2"/>
-    </row>
-    <row r="6" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="I6" s="2"/>
-      <c r="T6" s="2"/>
-    </row>
-    <row r="7" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="I7" s="2"/>
-      <c r="T7" s="2"/>
-    </row>
+    <row r="3" spans="2:26" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:N1"/>
-    <mergeCell ref="O1:Y1"/>
+    <mergeCell ref="O1:Z1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/src/main/resources/template/customers_template.xlsx
+++ b/src/main/resources/template/customers_template.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
   <si>
     <t>Name</t>
   </si>
@@ -75,6 +75,12 @@
   </si>
   <si>
     <t>Billing Address</t>
+  </si>
+  <si>
+    <t>Beat</t>
+  </si>
+  <si>
+    <t>Beat Name</t>
   </si>
 </sst>
 </file>
@@ -98,7 +104,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -114,6 +120,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -145,12 +157,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,8 +445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Z3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Z6" sqref="Z6:Z7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -461,119 +476,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1" t="s">
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="R2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="S2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="T2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="U2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="V2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="W2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="X2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Y2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Z2" s="2"/>
+      <c r="Z2" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="3" spans="2:26" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:N1"/>
-    <mergeCell ref="O1:Z1"/>
+    <mergeCell ref="O1:Y1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
